--- a/PCO_Alex.xlsx
+++ b/PCO_Alex.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesin\OneDrive\Documentos\GitHub\Aula2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4313FD8-66B6-4697-8C22-8BA5AD0CCE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F9968188-C67E-4D86-BCCF-2EFE83FCB28D}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="PCO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>César de Moura Almeida</t>
   </si>
@@ -78,9 +77,6 @@
     <t>Quem</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>Para monitorar possiveis fraudes ou ações fora do contexto do mercado</t>
   </si>
   <si>
@@ -93,9 +89,6 @@
     <t>Página Cursos</t>
   </si>
   <si>
-    <t>Palestrante / Professor</t>
-  </si>
-  <si>
     <t>Para poder verificar se está sendo criados cursos com conteudos reais e escritos por pessoas não bots</t>
   </si>
   <si>
@@ -108,9 +101,6 @@
     <t>Iniciando curso</t>
   </si>
   <si>
-    <t>Aluno / usuário leigo</t>
-  </si>
-  <si>
     <t>Para validar se não estão tentando burlar o sitema para conseguir as UpCoins sem ter feito realmente o curso</t>
   </si>
   <si>
@@ -136,12 +126,72 @@
   </si>
   <si>
     <t>Para validar se a API está pegando os dados em tempo real da bolsa</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Gasto das máquina</t>
+  </si>
+  <si>
+    <t>Consumo de memória</t>
+  </si>
+  <si>
+    <t>Marge Request</t>
+  </si>
+  <si>
+    <t>Olhando tempo de uso</t>
+  </si>
+  <si>
+    <t>Vendo o consumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vendo os pedidos de MR</t>
+  </si>
+  <si>
+    <t>24/5</t>
+  </si>
+  <si>
+    <t>Equipe de Sustentação</t>
+  </si>
+  <si>
+    <t>Equipe de Fraude</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Criação de Pipeline</t>
+  </si>
+  <si>
+    <t>Vendo disponipilidade esteiras</t>
+  </si>
+  <si>
+    <t>Para não estourar o teto de gastos da empresa</t>
+  </si>
+  <si>
+    <t>Para que não haja subidas fora das janelas de mudanças ou emergências</t>
+  </si>
+  <si>
+    <t>Para que não ocorra sobrecarga das máquinas que fazem o deploy</t>
+  </si>
+  <si>
+    <t>Security Group</t>
+  </si>
+  <si>
+    <t>Para não haja acesso de máquinas de fora dentro do ambiente de PROD, HML, DEV e TI</t>
+  </si>
+  <si>
+    <t>Vendo IPs chamadores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -321,6 +371,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,13 +411,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,7 +469,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" xmlns="" r:id="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -732,11 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896257EA-E2E0-4351-879D-55C607E7E4AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22:T23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,17 +891,17 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9">
         <v>2201010</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
         <v>1</v>
@@ -920,17 +976,17 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -948,15 +1004,15 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -974,15 +1030,15 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1077,29 +1133,29 @@
         <v>3</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1113,35 +1169,35 @@
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="16" t="s">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1153,22 +1209,22 @@
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="12"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1179,101 +1235,101 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="E16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="8" t="s">
-        <v>16</v>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="9"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="12"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="8" t="s">
-        <v>16</v>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1285,22 +1341,22 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="9"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="12"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -1311,35 +1367,35 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="8" t="s">
-        <v>16</v>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1351,22 +1407,22 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="9"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="12"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -1377,35 +1433,35 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="8" t="s">
-        <v>16</v>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -1417,22 +1473,22 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="9"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="12"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -1443,48 +1499,62 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="E24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="12"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -1495,48 +1565,62 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="E26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="12"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -1547,48 +1631,62 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="E28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="12"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -1599,48 +1697,62 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="E30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="12"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -1651,48 +1763,62 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="E32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="12"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -3441,12 +3567,64 @@
       <c r="X100" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:S13"/>
+  <mergeCells count="78">
+    <mergeCell ref="O32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="O24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="O26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O22:S23"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="J7:R9"/>
@@ -3463,28 +3641,11 @@
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="O22:S23"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:S13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3501,6 +3662,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B98A8EE2A9F7A14F94CEDBF06729C915" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="597cf7099a3fb193efe675adcf30007b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4d0c820a-888c-467f-9883-f2eb09285986" xmlns:ns4="940bfef5-bb28-406b-bdf9-8930a42e3353" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab03df273b3a9a33246b16afd366b863" ns3:_="" ns4:_="">
     <xsd:import namespace="4d0c820a-888c-467f-9883-f2eb09285986"/>
@@ -3729,12 +3896,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCFA95D-489D-485B-9C25-A3CF7BB8D636}">
   <ds:schemaRefs>
@@ -3744,6 +3905,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB1684-78B3-41A9-B0EC-82C07450D84C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="940bfef5-bb28-406b-bdf9-8930a42e3353"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4d0c820a-888c-467f-9883-f2eb09285986"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B226457B-5E12-49EC-9876-643CA9234A24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3760,21 +3938,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71DB1684-78B3-41A9-B0EC-82C07450D84C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="940bfef5-bb28-406b-bdf9-8930a42e3353"/>
-    <ds:schemaRef ds:uri="4d0c820a-888c-467f-9883-f2eb09285986"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>